--- a/TestData/PlaywrightData.xlsx
+++ b/TestData/PlaywrightData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Playwright\Playwright_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15877BB-FCD9-4B5B-9EA0-4AC9DDF1510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2B60B4-5422-4CC4-84C1-1B100C187D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>AllSheetNames</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Arabic</t>
+  </si>
+  <si>
+    <t>doclicksure</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>//label[text()='Languages']</t>
   </si>
 </sst>
 </file>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +924,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -995,31 +1004,31 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>46</v>
+      <c r="A20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10">
+        <v>500</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1030,24 +1039,24 @@
         <v>9</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,24 +1067,24 @@
         <v>9</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,43 +1095,43 @@
         <v>9</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
@@ -1136,7 +1145,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
@@ -1149,16 +1158,44 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C33" s="10">
         <v>2000</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>7</v>
       </c>
     </row>
